--- a/Sufficient data WITH_PO/forecast_summary_B0DQLKPSMG_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B0DQLKPSMG_WITH_PO.xlsx
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.34</v>
+        <v>8.01</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.63</v>
+        <v>7.24</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9.630000000000001</v>
+        <v>7.23</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.17</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.84</v>
+        <v>1.18</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6.09</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -834,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.01</v>
+        <v>2.25</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4.07</v>
+        <v>1.32</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2.95</v>
+        <v>0.38</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.99</v>
+        <v>1.12</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1005,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.91</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1119,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W35</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1176,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W37</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1290,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>W38</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.87</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W26</t>
+          <t>W39</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.16</v>
+        <v>0.99</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05 to 2025-03-23</t>
+          <t>2025-01-05 to 2025-06-01</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>507 units</t>
+          <t>991 units</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1065</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>586</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>262</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>42</t>
         </is>
       </c>
     </row>
